--- a/Code/Results/Cases/Case_2_240/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_240/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.996176422667133</v>
+        <v>1.369673264576136</v>
       </c>
       <c r="C2">
-        <v>0.7550746611800605</v>
+        <v>0.2656826914772807</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2145840115298725</v>
+        <v>0.1710439527779499</v>
       </c>
       <c r="F2">
-        <v>6.658223509347238</v>
+        <v>4.455129512108329</v>
       </c>
       <c r="G2">
-        <v>0.0007935042001116867</v>
+        <v>0.002515153514457071</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.6676323942776463</v>
+        <v>0.3130241731869177</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.1843337916607481</v>
+        <v>0.2883275366245215</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.571124533913007</v>
+        <v>1.274332601997514</v>
       </c>
       <c r="C3">
-        <v>0.6440064978945657</v>
+        <v>0.2404017378414096</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1833088268147165</v>
+        <v>0.165189469593642</v>
       </c>
       <c r="F3">
-        <v>5.881891607840259</v>
+        <v>4.262079529812581</v>
       </c>
       <c r="G3">
-        <v>0.0008056979111172387</v>
+        <v>0.002521948973448715</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.5872225236228132</v>
+        <v>0.2913821266990482</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.1562928207502239</v>
+        <v>0.2924932427373079</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.3176889565637</v>
+        <v>1.216979766397799</v>
       </c>
       <c r="C4">
-        <v>0.577867140129996</v>
+        <v>0.2251144228771125</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1647326911736187</v>
+        <v>0.1616932456686939</v>
       </c>
       <c r="F4">
-        <v>5.418858043238032</v>
+        <v>4.14475348412256</v>
       </c>
       <c r="G4">
-        <v>0.0008133140185106953</v>
+        <v>0.002526332801668354</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.5392207630887782</v>
+        <v>0.2780906112967472</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.1402215886951588</v>
+        <v>0.2955575123909995</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.21602777890638</v>
+        <v>1.193902764974666</v>
       </c>
       <c r="C5">
-        <v>0.5513501300156634</v>
+        <v>0.2189427116898059</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1572959309283419</v>
+        <v>0.1602927282571969</v>
       </c>
       <c r="F5">
-        <v>5.233080446144754</v>
+        <v>4.097236510153522</v>
       </c>
       <c r="G5">
-        <v>0.0008164544551781171</v>
+        <v>0.002528172617966939</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.5199462400478012</v>
+        <v>0.2726721111909995</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.1339254256516256</v>
+        <v>0.2969333593368546</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.199237002382119</v>
+        <v>1.190088542737669</v>
       </c>
       <c r="C6">
-        <v>0.546971088737024</v>
+        <v>0.2179213725983118</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1560684424059602</v>
+        <v>0.1600616208067507</v>
       </c>
       <c r="F6">
-        <v>5.202394138199395</v>
+        <v>4.089363861474254</v>
       </c>
       <c r="G6">
-        <v>0.0008169782632431996</v>
+        <v>0.002528481347906592</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.5167614621453254</v>
+        <v>0.2717722089866186</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.1328942911724873</v>
+        <v>0.2971694895933261</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.316311724025809</v>
+        <v>1.216667353257037</v>
       </c>
       <c r="C7">
-        <v>0.5775078607829585</v>
+        <v>0.2250309557397827</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1646318875653563</v>
+        <v>0.1616742604299972</v>
       </c>
       <c r="F7">
-        <v>5.416341429066478</v>
+        <v>4.144111473987607</v>
       </c>
       <c r="G7">
-        <v>0.0008133562171207022</v>
+        <v>0.002526357397657708</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.538959731451385</v>
+        <v>0.2780175457129133</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.1401356952159816</v>
+        <v>0.2955755530840847</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.847870800117278</v>
+        <v>1.336551240244773</v>
       </c>
       <c r="C8">
-        <v>0.7162987352138543</v>
+        <v>0.2569162633849089</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.203654527121941</v>
+        <v>0.16900456883684</v>
       </c>
       <c r="F8">
-        <v>6.387382593249384</v>
+        <v>4.388309605089347</v>
       </c>
       <c r="G8">
-        <v>0.0007976845735538201</v>
+        <v>0.00251745284481935</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.6395855195299305</v>
+        <v>0.3055618761882641</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.1744046802563801</v>
+        <v>0.2896585995623688</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.965051754291437</v>
+        <v>1.581241319452374</v>
       </c>
       <c r="C9">
-        <v>1.009138352536411</v>
+        <v>0.3213673116834457</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2864366382739334</v>
+        <v>0.1841853705781489</v>
       </c>
       <c r="F9">
-        <v>8.426974401056327</v>
+        <v>4.877207620964981</v>
       </c>
       <c r="G9">
-        <v>0.0007677490867790451</v>
+        <v>0.002501658464652814</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.8508349224136822</v>
+        <v>0.359611442139169</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.2525851814440223</v>
+        <v>0.2820863622141445</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.856499243280439</v>
+        <v>1.76714293803775</v>
       </c>
       <c r="C10">
-        <v>1.244250259033606</v>
+        <v>0.369977703328459</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.3532156399441106</v>
+        <v>0.1958657984561114</v>
       </c>
       <c r="F10">
-        <v>10.05343480980778</v>
+        <v>5.243170703513272</v>
       </c>
       <c r="G10">
-        <v>0.000745860420158392</v>
+        <v>0.00249105698207625</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.01963637967296</v>
+        <v>0.3994306975161805</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.319942728939079</v>
+        <v>0.2789990654183399</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.28458272532913</v>
+        <v>1.853107643595138</v>
       </c>
       <c r="C11">
-        <v>1.357677580481607</v>
+        <v>0.392384241964578</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.3855002238815146</v>
+        <v>0.2013018212315103</v>
       </c>
       <c r="F11">
-        <v>10.83410675709649</v>
+        <v>5.411273319071654</v>
       </c>
       <c r="G11">
-        <v>0.0007358169605382912</v>
+        <v>0.002486448828903751</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.100843306247185</v>
+        <v>0.4175884916315908</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3536871046512609</v>
+        <v>0.2781366988224931</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.450700072714994</v>
+        <v>1.885865978220863</v>
       </c>
       <c r="C12">
-        <v>1.401790346568134</v>
+        <v>0.4009127149925575</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.3980646828092063</v>
+        <v>0.2033785466810869</v>
       </c>
       <c r="F12">
-        <v>11.13696958447917</v>
+        <v>5.47517439657571</v>
       </c>
       <c r="G12">
-        <v>0.0007319898399411333</v>
+        <v>0.002484734456985734</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.132385516825366</v>
+        <v>0.424472202089845</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3670146950058886</v>
+        <v>0.2778884718051202</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.414731188352732</v>
+        <v>1.878801678702359</v>
       </c>
       <c r="C13">
-        <v>1.392234026995709</v>
+        <v>0.3990739936657519</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.3953424343306509</v>
+        <v>0.2029304666403533</v>
       </c>
       <c r="F13">
-        <v>11.07139545399019</v>
+        <v>5.461401119688617</v>
       </c>
       <c r="G13">
-        <v>0.0007328153519600881</v>
+        <v>0.002485102318479291</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.125554300167863</v>
+        <v>0.4229893040255774</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3641180127924564</v>
+        <v>0.2779384417140136</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.298163878804814</v>
+        <v>1.855798549673693</v>
       </c>
       <c r="C14">
-        <v>1.361282002276596</v>
+        <v>0.3930850025048471</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.3865266920735309</v>
+        <v>0.2014723060265595</v>
       </c>
       <c r="F14">
-        <v>10.85886940257433</v>
+        <v>5.416525541656767</v>
       </c>
       <c r="G14">
-        <v>0.000735502654940365</v>
+        <v>0.002486307173576282</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.103421434238442</v>
+        <v>0.4181546549871769</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3547718833942142</v>
+        <v>0.2781147048569039</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.227311199712688</v>
+        <v>1.841735348139764</v>
       </c>
       <c r="C15">
-        <v>1.34248182455184</v>
+        <v>0.3894222933198535</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.3811731129903393</v>
+        <v>0.2005815315018609</v>
       </c>
       <c r="F15">
-        <v>10.72967984072409</v>
+        <v>5.389070086280185</v>
       </c>
       <c r="G15">
-        <v>0.0007371452102507336</v>
+        <v>0.002487049165694134</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1.089972630701823</v>
+        <v>0.4151943451770137</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3491221348346336</v>
+        <v>0.2782328841093715</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.829038710229838</v>
+        <v>1.76155343477069</v>
       </c>
       <c r="C16">
-        <v>1.236986217376852</v>
+        <v>0.3685194074546985</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.3511493553535061</v>
+        <v>0.1955130585430425</v>
       </c>
       <c r="F16">
-        <v>10.00334756507763</v>
+        <v>5.232218395774282</v>
       </c>
       <c r="G16">
-        <v>0.0007465141238293444</v>
+        <v>0.002491362434440138</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1.014430753153533</v>
+        <v>0.3982450478927433</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3178081639082357</v>
+        <v>0.2790663631577104</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.590984162182224</v>
+        <v>1.712725402519766</v>
       </c>
       <c r="C17">
-        <v>1.174073597005304</v>
+        <v>0.3557723090223135</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.3332609280653429</v>
+        <v>0.1924355245067204</v>
       </c>
       <c r="F17">
-        <v>9.569100515360219</v>
+        <v>5.136418511398801</v>
       </c>
       <c r="G17">
-        <v>0.0007522321568146454</v>
+        <v>0.002494063277134786</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.9693202648536214</v>
+        <v>0.387859448426866</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.2994588654634214</v>
+        <v>0.2797167773281615</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.456130292763419</v>
+        <v>1.684772040047221</v>
       </c>
       <c r="C18">
-        <v>1.138480873098899</v>
+        <v>0.3484680475816617</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.3231468250544864</v>
+        <v>0.1906769057663453</v>
       </c>
       <c r="F18">
-        <v>9.323074677184763</v>
+        <v>5.081469173981702</v>
       </c>
       <c r="G18">
-        <v>0.0007555137206211296</v>
+        <v>0.002495636934261532</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.9437787225935494</v>
+        <v>0.3818899626019174</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.2891895072468955</v>
+        <v>0.280141875327331</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.410805702517166</v>
+        <v>1.675329916733801</v>
       </c>
       <c r="C19">
-        <v>1.126525461071566</v>
+        <v>0.3459996365424445</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.3197506397914438</v>
+        <v>0.1900834241915845</v>
       </c>
       <c r="F19">
-        <v>9.24037999418141</v>
+        <v>5.062890093730857</v>
       </c>
       <c r="G19">
-        <v>0.0007566238587120997</v>
+        <v>0.002496173224124043</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.9351961204069426</v>
+        <v>0.3798694467578372</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.2857586122480136</v>
+        <v>0.2802945535915597</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.616106337964254</v>
+        <v>1.717909616143174</v>
       </c>
       <c r="C20">
-        <v>1.18070788768091</v>
+        <v>0.3571263998189806</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.3351466603641526</v>
+        <v>0.1927619389888307</v>
       </c>
       <c r="F20">
-        <v>9.614930600238068</v>
+        <v>5.146600741265388</v>
       </c>
       <c r="G20">
-        <v>0.0007516242932312979</v>
+        <v>0.002493773678569033</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.9740794369836863</v>
+        <v>0.3889645850584884</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3013820467035018</v>
+        <v>0.279642258917967</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.332286659792089</v>
+        <v>1.862549516544277</v>
       </c>
       <c r="C21">
-        <v>1.370339773419119</v>
+        <v>0.394842919606333</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.3891062997204386</v>
+        <v>0.2019001037901447</v>
       </c>
       <c r="F21">
-        <v>10.92108449188515</v>
+        <v>5.429699871057267</v>
       </c>
       <c r="G21">
-        <v>0.0007347140814678917</v>
+        <v>0.002485952448767125</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1.10989951210658</v>
+        <v>0.4195744866907489</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3575012120549346</v>
+        <v>0.2780608030031999</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.824228010296451</v>
+        <v>1.958279240978698</v>
       </c>
       <c r="C22">
-        <v>1.501187387262917</v>
+        <v>0.4197476772659456</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.426389464512269</v>
+        <v>0.2079789165751365</v>
       </c>
       <c r="F22">
-        <v>11.81780752410879</v>
+        <v>5.616150400598087</v>
       </c>
       <c r="G22">
-        <v>0.0007235157156426594</v>
+        <v>0.002481019293982693</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.203375781961626</v>
+        <v>0.4396256744430218</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.3974479294713404</v>
+        <v>0.2774840057951309</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.559182555587086</v>
+        <v>1.907075254358176</v>
       </c>
       <c r="C23">
-        <v>1.430628235447557</v>
+        <v>0.4064317475838379</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.4062806734671014</v>
+        <v>0.2047245950608385</v>
       </c>
       <c r="F23">
-        <v>11.33472851819033</v>
+        <v>5.516503908613913</v>
       </c>
       <c r="G23">
-        <v>0.000729510421259298</v>
+        <v>0.002483635951275352</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.152993556754836</v>
+        <v>0.4289192994278892</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.375787371148725</v>
+        <v>0.2777499255543958</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.604742406893251</v>
+        <v>1.715565464324698</v>
       </c>
       <c r="C24">
-        <v>1.177706745522585</v>
+        <v>0.3565141400511038</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.3342935953772539</v>
+        <v>0.1926143337294164</v>
       </c>
       <c r="F24">
-        <v>9.594199616202928</v>
+        <v>5.141996959463228</v>
       </c>
       <c r="G24">
-        <v>0.000751899125417848</v>
+        <v>0.002493904540977125</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.9719266021733972</v>
+        <v>0.3884649487426657</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3005117120820699</v>
+        <v>0.2796757893486514</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.652500744875965</v>
+        <v>1.513990431148045</v>
       </c>
       <c r="C25">
-        <v>0.9270265515009442</v>
+        <v>0.3037169158874349</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2631729985664535</v>
+        <v>0.1799885989145196</v>
       </c>
       <c r="F25">
-        <v>7.856503906476263</v>
+        <v>4.743807069104633</v>
       </c>
       <c r="G25">
-        <v>0.0007757974724932793</v>
+        <v>0.00250575418646019</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.7917227416097887</v>
+        <v>0.3449768447763972</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2299646901644792</v>
+        <v>0.2837014578521178</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_240/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_240/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.369673264576136</v>
+        <v>2.996176422667475</v>
       </c>
       <c r="C2">
-        <v>0.2656826914772807</v>
+        <v>0.7550746611800889</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1710439527779499</v>
+        <v>0.2145840115297375</v>
       </c>
       <c r="F2">
-        <v>4.455129512108329</v>
+        <v>6.658223509347266</v>
       </c>
       <c r="G2">
-        <v>0.002515153514457071</v>
+        <v>0.0007935041999926536</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.3130241731869177</v>
+        <v>0.6676323942776889</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2883275366245215</v>
+        <v>0.1843337916607481</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.274332601997514</v>
+        <v>2.57112453391278</v>
       </c>
       <c r="C3">
-        <v>0.2404017378414096</v>
+        <v>0.6440064978947362</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.165189469593642</v>
+        <v>0.1833088268146241</v>
       </c>
       <c r="F3">
-        <v>4.262079529812581</v>
+        <v>5.88189160784006</v>
       </c>
       <c r="G3">
-        <v>0.002521948973448715</v>
+        <v>0.0008056979111515667</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2913821266990482</v>
+        <v>0.5872225236228701</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2924932427373079</v>
+        <v>0.1562928207502026</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.216979766397799</v>
+        <v>2.3176889565637</v>
       </c>
       <c r="C4">
-        <v>0.2251144228771125</v>
+        <v>0.5778671401291717</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1616932456686939</v>
+        <v>0.1647326911735689</v>
       </c>
       <c r="F4">
-        <v>4.14475348412256</v>
+        <v>5.418858043238032</v>
       </c>
       <c r="G4">
-        <v>0.002526332801668354</v>
+        <v>0.0008133140184094208</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2780906112967472</v>
+        <v>0.5392207630887356</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2955575123909995</v>
+        <v>0.1402215886951765</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.193902764974666</v>
+        <v>2.216027778906152</v>
       </c>
       <c r="C5">
-        <v>0.2189427116898059</v>
+        <v>0.5513501300160613</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1602927282571969</v>
+        <v>0.1572959309283632</v>
       </c>
       <c r="F5">
-        <v>4.097236510153522</v>
+        <v>5.233080446144754</v>
       </c>
       <c r="G5">
-        <v>0.002528172617966939</v>
+        <v>0.0008164544553946538</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2726721111909995</v>
+        <v>0.5199462400478865</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2969333593368546</v>
+        <v>0.1339254256516362</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.190088542737669</v>
+        <v>2.19923700238229</v>
       </c>
       <c r="C6">
-        <v>0.2179213725983118</v>
+        <v>0.5469710887370809</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1600616208067507</v>
+        <v>0.1560684424059033</v>
       </c>
       <c r="F6">
-        <v>4.089363861474254</v>
+        <v>5.20239413819931</v>
       </c>
       <c r="G6">
-        <v>0.002528481347906592</v>
+        <v>0.000816978263364497</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2717722089866186</v>
+        <v>0.5167614621453254</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2971694895933261</v>
+        <v>0.1328942911724909</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.216667353257037</v>
+        <v>2.316311724025411</v>
       </c>
       <c r="C7">
-        <v>0.2250309557397827</v>
+        <v>0.5775078607833848</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1616742604299972</v>
+        <v>0.1646318875652923</v>
       </c>
       <c r="F7">
-        <v>4.144111473987607</v>
+        <v>5.416341429066506</v>
       </c>
       <c r="G7">
-        <v>0.002526357397657708</v>
+        <v>0.0008133562171069749</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2780175457129133</v>
+        <v>0.5389597314513281</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2955755530840847</v>
+        <v>0.1401356952159709</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.336551240244773</v>
+        <v>2.847870800117448</v>
       </c>
       <c r="C8">
-        <v>0.2569162633849089</v>
+        <v>0.7162987352137407</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.16900456883684</v>
+        <v>0.2036545271220334</v>
       </c>
       <c r="F8">
-        <v>4.388309605089347</v>
+        <v>6.38738259324947</v>
       </c>
       <c r="G8">
-        <v>0.00251745284481935</v>
+        <v>0.0007976845736515501</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.3055618761882641</v>
+        <v>0.6395855195300015</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2896585995623688</v>
+        <v>0.1744046802563588</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.581241319452374</v>
+        <v>3.965051754291437</v>
       </c>
       <c r="C9">
-        <v>0.3213673116834457</v>
+        <v>1.009138352536922</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1841853705781489</v>
+        <v>0.2864366382739263</v>
       </c>
       <c r="F9">
-        <v>4.877207620964981</v>
+        <v>8.426974401056441</v>
       </c>
       <c r="G9">
-        <v>0.002501658464652814</v>
+        <v>0.0007677490868810658</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.359611442139169</v>
+        <v>0.8508349224135543</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.2820863622141445</v>
+        <v>0.2525851814440365</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.76714293803775</v>
+        <v>4.856499243280098</v>
       </c>
       <c r="C10">
-        <v>0.369977703328459</v>
+        <v>1.244250259035312</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1958657984561114</v>
+        <v>0.3532156399441959</v>
       </c>
       <c r="F10">
-        <v>5.243170703513272</v>
+        <v>10.05343480980747</v>
       </c>
       <c r="G10">
-        <v>0.00249105698207625</v>
+        <v>0.0007458604199982603</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3994306975161805</v>
+        <v>1.019636379672761</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.2789990654183399</v>
+        <v>0.319942728939111</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.853107643595138</v>
+        <v>5.284582725328846</v>
       </c>
       <c r="C11">
-        <v>0.392384241964578</v>
+        <v>1.357677580482061</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2013018212315103</v>
+        <v>0.3855002238815359</v>
       </c>
       <c r="F11">
-        <v>5.411273319071654</v>
+        <v>10.83410675709683</v>
       </c>
       <c r="G11">
-        <v>0.002486448828903751</v>
+        <v>0.0007358169606083205</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.4175884916315908</v>
+        <v>1.100843306247015</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.2781366988224931</v>
+        <v>0.3536871046512076</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.885865978220863</v>
+        <v>5.450700072715108</v>
       </c>
       <c r="C12">
-        <v>0.4009127149925575</v>
+        <v>1.401790346567964</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2033785466810869</v>
+        <v>0.3980646828092986</v>
       </c>
       <c r="F12">
-        <v>5.47517439657571</v>
+        <v>11.13696958447946</v>
       </c>
       <c r="G12">
-        <v>0.002484734456985734</v>
+        <v>0.0007319898401784492</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.424472202089845</v>
+        <v>1.132385516825394</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.2778884718051202</v>
+        <v>0.367014695005949</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.878801678702359</v>
+        <v>5.414731188352675</v>
       </c>
       <c r="C13">
-        <v>0.3990739936657519</v>
+        <v>1.392234026995595</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2029304666403533</v>
+        <v>0.3953424343306651</v>
       </c>
       <c r="F13">
-        <v>5.461401119688617</v>
+        <v>11.07139545399031</v>
       </c>
       <c r="G13">
-        <v>0.002485102318479291</v>
+        <v>0.0007328153522037732</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4229893040255774</v>
+        <v>1.125554300167835</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.2779384417140136</v>
+        <v>0.3641180127924173</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.855798549673693</v>
+        <v>5.298163878804417</v>
       </c>
       <c r="C14">
-        <v>0.3930850025048471</v>
+        <v>1.361282002276255</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2014723060265595</v>
+        <v>0.3865266920737085</v>
       </c>
       <c r="F14">
-        <v>5.416525541656767</v>
+        <v>10.85886940257416</v>
       </c>
       <c r="G14">
-        <v>0.002486307173576282</v>
+        <v>0.0007355026546002511</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.4181546549871769</v>
+        <v>1.103421434238356</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.2781147048569039</v>
+        <v>0.3547718833942497</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.841735348139764</v>
+        <v>5.227311199712744</v>
       </c>
       <c r="C15">
-        <v>0.3894222933198535</v>
+        <v>1.342481824552465</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2005815315018609</v>
+        <v>0.3811731129904246</v>
       </c>
       <c r="F15">
-        <v>5.389070086280185</v>
+        <v>10.72967984072415</v>
       </c>
       <c r="G15">
-        <v>0.002487049165694134</v>
+        <v>0.0007371452101563314</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.4151943451770137</v>
+        <v>1.089972630701936</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.2782328841093715</v>
+        <v>0.3491221348346549</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.76155343477069</v>
+        <v>4.829038710229952</v>
       </c>
       <c r="C16">
-        <v>0.3685194074546985</v>
+        <v>1.236986217377364</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1955130585430425</v>
+        <v>0.3511493553536198</v>
       </c>
       <c r="F16">
-        <v>5.232218395774282</v>
+        <v>10.00334756507775</v>
       </c>
       <c r="G16">
-        <v>0.002491362434440138</v>
+        <v>0.0007465141237732322</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3982450478927433</v>
+        <v>1.01443075315359</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.2790663631577104</v>
+        <v>0.3178081639083032</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.712725402519766</v>
+        <v>4.59098416218211</v>
       </c>
       <c r="C17">
-        <v>0.3557723090223135</v>
+        <v>1.174073597004735</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1924355245067204</v>
+        <v>0.3332609280653429</v>
       </c>
       <c r="F17">
-        <v>5.136418511398801</v>
+        <v>9.569100515360219</v>
       </c>
       <c r="G17">
-        <v>0.002494063277134786</v>
+        <v>0.0007522321571110565</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.387859448426866</v>
+        <v>0.9693202648536214</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.2797167773281615</v>
+        <v>0.299458865463432</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.684772040047221</v>
+        <v>4.456130292763248</v>
       </c>
       <c r="C18">
-        <v>0.3484680475816617</v>
+        <v>1.138480873098388</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1906769057663453</v>
+        <v>0.3231468250545859</v>
       </c>
       <c r="F18">
-        <v>5.081469173981702</v>
+        <v>9.323074677184906</v>
       </c>
       <c r="G18">
-        <v>0.002495636934261532</v>
+        <v>0.000755513720597525</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3818899626019174</v>
+        <v>0.9437787225936347</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.280141875327331</v>
+        <v>0.2891895072468955</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.675329916733801</v>
+        <v>4.410805702517052</v>
       </c>
       <c r="C19">
-        <v>0.3459996365424445</v>
+        <v>1.126525461071537</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1900834241915845</v>
+        <v>0.3197506397913727</v>
       </c>
       <c r="F19">
-        <v>5.062890093730857</v>
+        <v>9.240379994181382</v>
       </c>
       <c r="G19">
-        <v>0.002496173224124043</v>
+        <v>0.0007566238586096377</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3798694467578372</v>
+        <v>0.9351961204071131</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.2802945535915597</v>
+        <v>0.2857586122480029</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.717909616143174</v>
+        <v>4.616106337964084</v>
       </c>
       <c r="C20">
-        <v>0.3571263998189806</v>
+        <v>1.180707887680853</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1927619389888307</v>
+        <v>0.3351466603642379</v>
       </c>
       <c r="F20">
-        <v>5.146600741265388</v>
+        <v>9.614930600238011</v>
       </c>
       <c r="G20">
-        <v>0.002493773678569033</v>
+        <v>0.0007516242930913547</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3889645850584884</v>
+        <v>0.9740794369838568</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.279642258917967</v>
+        <v>0.3013820467034556</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.862549516544277</v>
+        <v>5.332286659792317</v>
       </c>
       <c r="C21">
-        <v>0.394842919606333</v>
+        <v>1.37033977341855</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.2019001037901447</v>
+        <v>0.3891062997204457</v>
       </c>
       <c r="F21">
-        <v>5.429699871057267</v>
+        <v>10.9210844918851</v>
       </c>
       <c r="G21">
-        <v>0.002485952448767125</v>
+        <v>0.000734714081366971</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.4195744866907489</v>
+        <v>1.109899512106523</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.2780608030031999</v>
+        <v>0.3575012120549061</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.958279240978698</v>
+        <v>5.824228010296451</v>
       </c>
       <c r="C22">
-        <v>0.4197476772659456</v>
+        <v>1.501187387262974</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.2079789165751365</v>
+        <v>0.4263894645121482</v>
       </c>
       <c r="F22">
-        <v>5.616150400598087</v>
+        <v>11.81780752410873</v>
       </c>
       <c r="G22">
-        <v>0.002481019293982693</v>
+        <v>0.0007235157158160539</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.4396256744430218</v>
+        <v>1.203375781961654</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.2774840057951309</v>
+        <v>0.397447929471312</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.907075254358176</v>
+        <v>5.559182555586688</v>
       </c>
       <c r="C23">
-        <v>0.4064317475838379</v>
+        <v>1.43062823544858</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2047245950608385</v>
+        <v>0.4062806734671796</v>
       </c>
       <c r="F23">
-        <v>5.516503908613913</v>
+        <v>11.33472851819033</v>
       </c>
       <c r="G23">
-        <v>0.002483635951275352</v>
+        <v>0.0007295104211675296</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.4289192994278892</v>
+        <v>1.152993556755007</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.2777499255543958</v>
+        <v>0.3757873711487356</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.715565464324698</v>
+        <v>4.604742406893706</v>
       </c>
       <c r="C24">
-        <v>0.3565141400511038</v>
+        <v>1.177706745521562</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1926143337294164</v>
+        <v>0.3342935953773036</v>
       </c>
       <c r="F24">
-        <v>5.141996959463228</v>
+        <v>9.594199616202957</v>
       </c>
       <c r="G24">
-        <v>0.002493904540977125</v>
+        <v>0.0007518991255571579</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3884649487426657</v>
+        <v>0.9719266021736814</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.2796757893486514</v>
+        <v>0.3005117120821303</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.513990431148045</v>
+        <v>3.652500744875226</v>
       </c>
       <c r="C25">
-        <v>0.3037169158874349</v>
+        <v>0.927026551500461</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1799885989145196</v>
+        <v>0.2631729985663753</v>
       </c>
       <c r="F25">
-        <v>4.743807069104633</v>
+        <v>7.85650390647632</v>
       </c>
       <c r="G25">
-        <v>0.00250575418646019</v>
+        <v>0.0007757974725905811</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.3449768447763972</v>
+        <v>0.791722741609945</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2837014578521178</v>
+        <v>0.2299646901644827</v>
       </c>
       <c r="N25">
         <v>0</v>
